--- a/test.xlsx
+++ b/test.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9604A07-F265-4921-A1FF-EE4EEE31E4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68A0F51-7E0E-4351-A92A-C5A51F212464}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -432,9 +432,9 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,7 +451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1961</v>
       </c>
@@ -469,7 +469,7 @@
         <v>-25.623106583715558</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1961</v>
       </c>
@@ -487,7 +487,7 @@
         <v>-29.908250283157404</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1961</v>
       </c>
@@ -505,7 +505,7 @@
         <v>-20.3120365910539</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1961</v>
       </c>
@@ -523,7 +523,7 @@
         <v>-36.180702330514301</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1961</v>
       </c>
@@ -541,7 +541,7 @@
         <v>-52.479339690544535</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1961</v>
       </c>
@@ -559,7 +559,7 @@
         <v>17.426180373664067</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1961</v>
       </c>
@@ -577,7 +577,7 @@
         <v>-20.03209870699834</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1961</v>
       </c>
@@ -595,7 +595,7 @@
         <v>25.238976934559162</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1961</v>
       </c>
@@ -613,7 +613,7 @@
         <v>13.26380158734726</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1961</v>
       </c>
@@ -631,7 +631,7 @@
         <v>91.015345242117633</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1961</v>
       </c>
@@ -649,7 +649,7 @@
         <v>0.58941281985445926</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1961</v>
       </c>
@@ -667,7 +667,7 @@
         <v>-24.305376325985645</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1962</v>
       </c>
@@ -685,7 +685,7 @@
         <v>-29.965862085100049</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>1962</v>
       </c>
@@ -703,7 +703,7 @@
         <v>-30.912011219560537</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>1962</v>
       </c>
@@ -721,7 +721,7 @@
         <v>-72.471404423900452</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1962</v>
       </c>
@@ -739,7 +739,7 @@
         <v>-58.460855100031054</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>1962</v>
       </c>
@@ -757,7 +757,7 @@
         <v>-82.792315826119349</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>1962</v>
       </c>
@@ -775,7 +775,7 @@
         <v>-92.627134842401261</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>1962</v>
       </c>
@@ -793,7 +793,7 @@
         <v>52.535525813243737</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>1962</v>
       </c>
@@ -811,7 +811,7 @@
         <v>-0.24307323818125326</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>1962</v>
       </c>
@@ -829,7 +829,7 @@
         <v>3.9804949320612337</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>1962</v>
       </c>
@@ -847,7 +847,7 @@
         <v>28.980477466139469</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>1962</v>
       </c>
@@ -865,7 +865,7 @@
         <v>16.638390977051056</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>1962</v>
       </c>
@@ -883,7 +883,7 @@
         <v>-20.713747338113492</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>1963</v>
       </c>
@@ -901,7 +901,7 @@
         <v>-36.547394150014938</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>1963</v>
       </c>
@@ -919,7 +919,7 @@
         <v>-37.558490610066521</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>1963</v>
       </c>
@@ -937,7 +937,7 @@
         <v>-32.846179536719902</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>1963</v>
       </c>
@@ -955,7 +955,7 @@
         <v>-10.119105045180007</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>1963</v>
       </c>
@@ -973,7 +973,7 @@
         <v>29.677341511546487</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>1963</v>
       </c>
@@ -991,7 +991,7 @@
         <v>-72.825669017104133</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>1963</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>-29.761833348196049</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>1963</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>-6.4078355921305956</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>1963</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>63.654501039407535</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>1963</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>-21.247076553148567</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>1963</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>4.9286992023858041</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>1963</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>-16.119716526606716</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>1964</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>-11.017907291154122</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>1964</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>-14.135100284812237</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>1964</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>-31.58542064730436</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>1964</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>11.895314748382049</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>1964</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>50.601061099807595</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>1964</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>-56.905508488235583</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>1964</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>40.382446079223641</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>1964</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>7.518036107776993E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>1964</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>132.93498793147253</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>1964</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>67.334521101090203</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>1964</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>-21.710138752172462</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>1964</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>-17.166742425970561</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>1965</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>-26.508605052239229</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>1965</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>-25.632300429450286</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>1965</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>-28.4979493256556</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>1965</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>4.9754791234521605</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>1965</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>-51.752897121556551</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>1965</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>-62.234901325319058</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>1965</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>50.31051303182025</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>1965</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>-32.771155327480258</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>1965</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>-30.514664520112284</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>1965</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>19.715979014296543</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>1965</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>-23.034562353550584</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>1965</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>-21.827709088325356</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>1966</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>-28.178519077621004</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>1966</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>-31.957062732607966</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>1966</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>-38.637239963114155</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>1966</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>-34.540183759116154</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>1966</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>-72.532988541425681</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>1966</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>-99.702670703663998</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>1966</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>34.167380064156873</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>1966</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>-17.294644521215943</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>1966</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>65.119929380007434</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>1966</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>-2.3079107505353633</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>1966</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>-28.501938245124251</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>1966</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>-22.670773007189272</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>1967</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>-24.310741033694907</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>1967</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>-15.625208632439525</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>1967</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>2.5051697734522591</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>1967</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>-3.2675115073026646</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>1967</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>0.96163728087087463</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>1967</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>-14.653956503125215</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>1967</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>-11.852490576990917</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>1967</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>-32.354377811583362</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>1967</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>93.81705714019148</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>1967</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>-20.452590486867479</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>1967</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>13.328472935025225</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>1967</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>-22.506418769214125</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>1968</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>-18.954707094900915</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>1968</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>-30.332640519189592</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>1968</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>-35.76765536950775</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>1968</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>-30.042726519744839</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>1968</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>-46.046004808573358</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>1968</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>-89.020693101176533</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>1968</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>-31.528276797369315</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>1968</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>29.080797137555109</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>1968</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>117.9495010827672</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>1968</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>28.592324847916586</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>1968</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>4.3521790733821</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>1968</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>-20.436616844681474</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>1969</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>-15.015737662331896</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>1969</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>-16.202043329760592</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>1969</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>-45.453234344986768</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>1969</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>-10.082845565597822</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>1969</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>-89.138431872091701</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>1969</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>-120.34708824958139</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>1969</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>-31.030578048085118</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>1969</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>-61.961152165582249</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>1969</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>50.752843571623373</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>1969</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>-14.241243105835295</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>1969</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>-14.267835611517317</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>1969</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>-28.679575808797377</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>1970</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>-25.927659823727957</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>1970</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>-22.604483719139786</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>1970</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>-21.656762114300225</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>1970</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>-2.3104772899887536</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>1970</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>-37.767555968610836</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>1970</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>-53.311900512847785</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>1970</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>-5.2160402545550681</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>1970</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>14.929609756637717</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>1970</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>54.181129364093195</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>1970</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>-5.4875158006104883</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>1970</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>-28.942999817033879</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>1970</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>-24.416269812525286</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>1971</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>-23.076457927945636</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>1971</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>-20.14803523165719</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>1971</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>-55.773973028244455</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>1971</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>-20.673269604881867</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>1971</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>-66.444948983271885</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>1971</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>-0.30438018844805015</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>1971</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>-87.835645731853532</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>1971</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>-34.623524833371832</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>1971</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>-3.835263951935282</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>1971</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>19.567349879989862</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>1971</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>12.305807208903786</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>1971</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>-25.940413129230091</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>1972</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>-12.876000284741002</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>1972</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>-10.804790755971039</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>1972</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>-24.383502962238119</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>1972</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>-44.226944788576702</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>1972</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>-48.448919479023886</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>1972</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>-60.730370766488463</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>1972</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>-13.889021226247436</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>1972</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>-33.003551502585736</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>1972</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>-32.232260553035523</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>1972</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>-24.262148674825696</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>1972</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>-6.1762562951990141</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>1972</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>-26.082368602044024</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>1973</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>-14.86431976304546</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>1973</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>-35.615972865436319</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>1973</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>-40.626363580380058</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>1973</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>-10.908219184035573</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>1973</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>-23.906944690371247</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>1973</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>-60.751210405222785</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A152">
         <v>1973</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>-8.7494420035020539</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A153">
         <v>1973</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>-3.3372666164102753</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A154">
         <v>1973</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>16.434843967952062</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A155">
         <v>1973</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>43.363763807359888</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A156">
         <v>1973</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>-30.60911553197074</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A157">
         <v>1973</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>-31.395688420161424</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A158">
         <v>1974</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>-14.14414424651001</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A159">
         <v>1974</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>-22.381879283871477</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A160">
         <v>1974</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>-30.39440290919595</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A161">
         <v>1974</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>-78.793105287230901</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A162">
         <v>1974</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>-11.35794861463981</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A163">
         <v>1974</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>-59.952693348325454</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A164">
         <v>1974</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>-64.728939996893516</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A165">
         <v>1974</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>-34.242929077165471</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A166">
         <v>1974</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>90.3041460936372</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A167">
         <v>1974</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>44.735061222455528</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A168">
         <v>1974</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>-8.0698580562111211</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A169">
         <v>1974</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>-3.0152191129695325</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A170">
         <v>1975</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>-24.409978161655793</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A171">
         <v>1975</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>-29.212158964417593</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A172">
         <v>1975</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>-49.411470827639995</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A173">
         <v>1975</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>-11.117169610710519</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A174">
         <v>1975</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>-38.952861102701839</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A175">
         <v>1975</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>-61.048469613616774</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A176">
         <v>1975</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>27.874834048530815</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A177">
         <v>1975</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>-51.086150386554678</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A178">
         <v>1975</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>153.37694140215791</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A179">
         <v>1975</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>52.647653751969052</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A180">
         <v>1975</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>-6.9879970758378605</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A181">
         <v>1975</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>-9.763293990787858</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A182">
         <v>1976</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>-31.236754251417175</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A183">
         <v>1976</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>-7.7612380195547992</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A184">
         <v>1976</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>-39.23797475297151</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A185">
         <v>1976</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>-14.018980667639745</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A186">
         <v>1976</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>-45.605389307840994</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A187">
         <v>1976</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>-65.017513205423924</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A188">
         <v>1976</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>-40.345468977695148</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A189">
         <v>1976</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>114.75397324727447</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A190">
         <v>1976</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>2.2441603876773826</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A191">
         <v>1976</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>-13.206034477407002</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A192">
         <v>1976</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>-12.039807140293757</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A193">
         <v>1976</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>-22.474016711952217</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A194">
         <v>1977</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>-13.220767894941019</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A195">
         <v>1977</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>-38.078964475185003</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A196">
         <v>1977</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>-56.877552174251846</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A197">
         <v>1977</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>-16.043221775638784</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A198">
         <v>1977</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>-45.424121357772158</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A199">
         <v>1977</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>-74.831324675940408</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A200">
         <v>1977</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>4.5852958738223037</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A201">
         <v>1977</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>-71.134041436864862</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A202">
         <v>1977</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>-33.383991416482949</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A203">
         <v>1977</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>-12.416649804638602</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A204">
         <v>1977</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>-4.494473410772553</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A205">
         <v>1977</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>-16.024807504699211</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A206">
         <v>1978</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>-32.102235586786989</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A207">
         <v>1978</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>-28.885257090054509</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A208">
         <v>1978</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>-20.778904315857126</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A209">
         <v>1978</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>-81.328023663447965</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A210">
         <v>1978</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>-31.50491902326425</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A211">
         <v>1978</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>-62.761951883311966</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A212">
         <v>1978</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>75.904854039939011</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A213">
         <v>1978</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>-43.373317217861072</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A214">
         <v>1978</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>26.345830563660783</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A215">
         <v>1978</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>12.385785443567045</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A216">
         <v>1978</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>-13.829424579910732</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A217">
         <v>1978</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>-28.163475732689783</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A218">
         <v>1979</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>-26.029086805710449</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A219">
         <v>1979</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>-30.263870509709605</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A220">
         <v>1979</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>-24.742783933946711</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A221">
         <v>1979</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>-61.669299005272094</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A222">
         <v>1979</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>-72.140494154156215</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A223">
         <v>1979</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>-82.576834720265836</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A224">
         <v>1979</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>70.775040509789861</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A225">
         <v>1979</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>8.8942356114569066</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A226">
         <v>1979</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>32.897403453401104</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A227">
         <v>1979</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>-44.587570791943065</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A228">
         <v>1979</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>-21.299793734682392</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A229">
         <v>1979</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>-21.558005324482927</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A230">
         <v>1980</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>-22.034339939170621</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A231">
         <v>1980</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>-30.568750431180455</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A232">
         <v>1980</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>-30.864267310102875</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A233">
         <v>1980</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>-62.832497284323232</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A234">
         <v>1980</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>-18.684560977937707</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A235">
         <v>1980</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>-21.821076519547518</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A236">
         <v>1980</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>30.812337971367455</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A237">
         <v>1980</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>3.9430724060477047</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A238">
         <v>1980</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>10.949457774647144</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A239">
         <v>1980</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>18.722844467527928</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A240">
         <v>1980</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>-22.674054609449591</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A241">
         <v>1980</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>-31.161247225326193</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A242">
         <v>1981</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>-16.336862737146681</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A243">
         <v>1981</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>-26.741208535023368</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A244">
         <v>1981</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>-41.128257409896875</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A245">
         <v>1981</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>-35.09382579502568</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A246">
         <v>1981</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>-106.32093316957555</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A247">
         <v>1981</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>-43.596543371717956</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A248">
         <v>1981</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>19.006658954997874</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A249">
         <v>1981</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>115.02624229888205</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A250">
         <v>1981</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>84.698438185182795</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A251">
         <v>1981</v>
       </c>
@@ -4951,7 +4951,7 @@
         <v>-27.362801340128296</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A252">
         <v>1981</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>-7.2256510233628077</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A253">
         <v>1981</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>-21.586768725002379</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A254">
         <v>1982</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>-25.530045991390885</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A255">
         <v>1982</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>-15.734448430402644</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A256">
         <v>1982</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>-22.314194500097834</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A257">
         <v>1982</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>-41.045354409788828</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A258">
         <v>1982</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>-81.520002718287088</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A259">
         <v>1982</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>-97.242216957158433</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A260">
         <v>1982</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>-7.2074941710800005</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A261">
         <v>1982</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>39.648160384934002</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A262">
         <v>1982</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>46.756335733324967</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A263">
         <v>1982</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>-20.436988525922366</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A264">
         <v>1982</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>-12.170797398807391</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A265">
         <v>1982</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>-25.273456716866065</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A266">
         <v>1983</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>-19.958591653366664</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A267">
         <v>1983</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>-34.396233620546333</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A268">
         <v>1983</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>-28.794811338293467</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A269">
         <v>1983</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>-20.787651793719341</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A270">
         <v>1983</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>-4.6311388234882429</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A271">
         <v>1983</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>7.1546810924975404</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A272">
         <v>1983</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>63.546199697802621</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A273">
         <v>1983</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>18.112876919819115</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A274">
         <v>1983</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>98.76513704146079</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A275">
         <v>1983</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>93.209542441112191</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A276">
         <v>1983</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>-16.747082952810093</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A277">
         <v>1983</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>-23.713070948841715</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A278">
         <v>1984</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>-17.580524337203613</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A279">
         <v>1984</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>-30.936960398087606</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A280">
         <v>1984</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>-55.283172064787195</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A281">
         <v>1984</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>-42.911765104659565</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A282">
         <v>1984</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>-6.585149081026799</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A283">
         <v>1984</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>23.223875173634752</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A284">
         <v>1984</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>79.455653505690208</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A285">
         <v>1984</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>-2.4595700184851239</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A286">
         <v>1984</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>152.34523679568093</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A287">
         <v>1984</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>-16.536436260649303</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A288">
         <v>1984</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>-14.160551977531068</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A289">
         <v>1984</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>-7.2754485176533308</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A290">
         <v>1985</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>-20.410428730447777</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A291">
         <v>1985</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>-27.714251313206049</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A292">
         <v>1985</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>-33.433491860449308</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A293">
         <v>1985</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>-53.245150017011674</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A294">
         <v>1985</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>24.878365299345361</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A295">
         <v>1985</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>-26.264931582286465</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A296">
         <v>1985</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>-35.480394901739942</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A297">
         <v>1985</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>-5.0285182923494887</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A298">
         <v>1985</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>71.597598056193704</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A299">
         <v>1985</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>28.231677076282779</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A300">
         <v>1985</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>-32.605506192782293</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A301">
         <v>1985</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>-22.119508451567384</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A302">
         <v>1986</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>-28.421179404603439</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A303">
         <v>1986</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>-35.442153397544068</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A304">
         <v>1986</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>-34.388386533340864</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A305">
         <v>1986</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>-45.324742987009614</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A306">
         <v>1986</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>-59.319348843517389</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A307">
         <v>1986</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>-13.553532455992197</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A308">
         <v>1986</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>-26.725832851497046</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A309">
         <v>1986</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>-41.795588757009753</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A310">
         <v>1986</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>-0.69770124622705509</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A311">
         <v>1986</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>-15.618554244876918</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A312">
         <v>1986</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>-17.355342503137351</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A313">
         <v>1986</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>-20.063607700078538</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A314">
         <v>1987</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>-31.320350641785286</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A315">
         <v>1987</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>-30.857717461154138</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A316">
         <v>1987</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>-28.709863144360018</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A317">
         <v>1987</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>-48.324356509930411</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A318">
         <v>1987</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>14.200094288014142</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A319">
         <v>1987</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v>22.465175054992557</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A320">
         <v>1987</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>-37.00812266502939</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A321">
         <v>1987</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>2.5843827236826797</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A322">
         <v>1987</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>-34.259494589303991</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A323">
         <v>1987</v>
       </c>
@@ -6247,7 +6247,7 @@
         <v>-2.7202674171475394</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A324">
         <v>1987</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>-16.56405056636471</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A325">
         <v>1987</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>-30.012368997885602</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A326">
         <v>1988</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>-29.032709074862797</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A327">
         <v>1988</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>-15.887847693154823</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A328">
         <v>1988</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>4.0237626294713777</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A329">
         <v>1988</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>-66.32965804362189</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A330">
         <v>1988</v>
       </c>
@@ -6373,7 +6373,7 @@
         <v>4.8379699103404619</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A331">
         <v>1988</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>-83.842607024226524</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A332">
         <v>1988</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>75.594645158310456</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A333">
         <v>1988</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>58.695788076075772</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A334">
         <v>1988</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>14.402300321528713</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A335">
         <v>1988</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>35.970121188629818</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A336">
         <v>1988</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>-37.642179887950782</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A337">
         <v>1988</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>-22.788115668095656</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A338">
         <v>1989</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>-2.8665290486405901</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A339">
         <v>1989</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>-0.77370714428791842</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A340">
         <v>1989</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>-28.985279951885115</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A341">
         <v>1989</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>-8.1266803839079671</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A342">
         <v>1989</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>-60.237811625037025</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A343">
         <v>1989</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>-35.920001156473404</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A344">
         <v>1989</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>20.213592416909336</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A345">
         <v>1989</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>48.899970483160502</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A346">
         <v>1989</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>4.423972080353451</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A347">
         <v>1989</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>-24.539571468977137</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A348">
         <v>1989</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>-3.5570294883460498</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A349">
         <v>1989</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>-6.9211901851441233</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A350">
         <v>1990</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>-14.518349660640443</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A351">
         <v>1990</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>-8.478980843930465</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A352">
         <v>1990</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>-22.50904154977496</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A353">
         <v>1990</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>-12.904528211712112</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A354">
         <v>1990</v>
       </c>
@@ -6805,7 +6805,7 @@
         <v>-39.839525029440878</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A355">
         <v>1990</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>1.5921476757273041</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A356">
         <v>1990</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>-9.1400757344190851</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A357">
         <v>1990</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>8.4673396439483639</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A358">
         <v>1990</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>2.9759242030068833</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A359">
         <v>1990</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>-1.7966830951055925</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A360">
         <v>1990</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>-21.941071351291068</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A361">
         <v>1990</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>-25.590009780588055</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A362">
         <v>1991</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>-18.465556277877003</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A363">
         <v>1991</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>-24.315933641172165</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A364">
         <v>1991</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>-6.3945349082757019</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A365">
         <v>1991</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>-38.671018987390298</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A366">
         <v>1991</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>-9.8004714466276113</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A367">
         <v>1991</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>-25.165408252002123</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A368">
         <v>1991</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>-46.095541298358626</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A369">
         <v>1991</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>-22.60183535313908</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A370">
         <v>1991</v>
       </c>
@@ -7093,7 +7093,7 @@
         <v>-9.1635164035520376</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A371">
         <v>1991</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>-31.739750677279165</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A372">
         <v>1991</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>-25.53968845714417</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A373">
         <v>1991</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>-11.594203771141725</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A374">
         <v>1992</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>-24.622505818194089</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A375">
         <v>1992</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>-38.239661718369213</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A376">
         <v>1992</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>-1.0337491637734644</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A377">
         <v>1992</v>
       </c>
@@ -7219,7 +7219,7 @@
         <v>-73.777156372413472</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A378">
         <v>1992</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v>-36.838906317114926</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A379">
         <v>1992</v>
       </c>
@@ -7255,7 +7255,7 @@
         <v>-11.610832790970932</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A380">
         <v>1992</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>0.83066697469431006</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A381">
         <v>1992</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>35.315120408439228</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A382">
         <v>1992</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>57.530713893454624</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A383">
         <v>1992</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>9.232318162363633</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A384">
         <v>1992</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>-26.848285668419273</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A385">
         <v>1992</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>-21.580629045984658</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A386">
         <v>1993</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>-12.904264005880318</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A387">
         <v>1993</v>
       </c>
@@ -7399,7 +7399,7 @@
         <v>-18.089107498184525</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A388">
         <v>1993</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>-19.215201150497059</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A389">
         <v>1993</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>-51.35113242672535</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A390">
         <v>1993</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>-16.903482903815743</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A391">
         <v>1993</v>
       </c>
@@ -7471,7 +7471,7 @@
         <v>-23.936358643591703</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A392">
         <v>1993</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>1.5573590173567027</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A393">
         <v>1993</v>
       </c>
@@ -7507,7 +7507,7 @@
         <v>1.9699216992371475</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A394">
         <v>1993</v>
       </c>
@@ -7525,7 +7525,7 @@
         <v>-33.001790649559666</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A395">
         <v>1993</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>-4.9507783102377019</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A396">
         <v>1993</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>-9.5247062723899205</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A397">
         <v>1993</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>-26.540559656989991</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A398">
         <v>1994</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>-20.99611456534236</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A399">
         <v>1994</v>
       </c>
@@ -7615,7 +7615,7 @@
         <v>-20.730803570727229</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A400">
         <v>1994</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>-41.52973072739367</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A401">
         <v>1994</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>-19.147729544258581</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A402">
         <v>1994</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>-118.0171807393757</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A403">
         <v>1994</v>
       </c>
@@ -7687,7 +7687,7 @@
         <v>16.400213707385802</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A404">
         <v>1994</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>-46.47475170923363</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A405">
         <v>1994</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>-76.401589157252914</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A406">
         <v>1994</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>-23.036622976339586</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A407">
         <v>1994</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>19.339061411118671</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A408">
         <v>1994</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>0.18884884980020189</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A409">
         <v>1994</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>-12.017194427694255</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A410">
         <v>1995</v>
       </c>
@@ -7813,7 +7813,7 @@
         <v>-23.79269527678866</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A411">
         <v>1995</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>-29.592452662249258</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A412">
         <v>1995</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>-43.949082195989995</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A413">
         <v>1995</v>
       </c>
@@ -7867,7 +7867,7 @@
         <v>-52.962384802117484</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A414">
         <v>1995</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>-105.53853939209829</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A415">
         <v>1995</v>
       </c>
@@ -7903,7 +7903,7 @@
         <v>-99.943984875793575</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A416">
         <v>1995</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>-33.830894288086768</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A417">
         <v>1995</v>
       </c>
@@ -7939,7 +7939,7 @@
         <v>5.6485201313050482</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A418">
         <v>1995</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>-34.55938804716515</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A419">
         <v>1995</v>
       </c>
@@ -7975,7 +7975,7 @@
         <v>17.20397750275783</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A420">
         <v>1995</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>-36.003336111776449</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A421">
         <v>1995</v>
       </c>
@@ -8011,7 +8011,7 @@
         <v>-25.611833400700537</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A422">
         <v>1996</v>
       </c>
@@ -8029,7 +8029,7 @@
         <v>-20.734306841730437</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A423">
         <v>1996</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>-28.990626952320561</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A424">
         <v>1996</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>-33.177278959919278</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A425">
         <v>1996</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>-47.517947008895334</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A426">
         <v>1996</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>-57.467514038384294</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A427">
         <v>1996</v>
       </c>
@@ -8119,7 +8119,7 @@
         <v>-23.950334270683797</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A428">
         <v>1996</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>-4.2009119950374725</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A429">
         <v>1996</v>
       </c>
@@ -8155,7 +8155,7 @@
         <v>-21.367893557669944</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A430">
         <v>1996</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>18.794738693974807</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A431">
         <v>1996</v>
       </c>
@@ -8191,7 +8191,7 @@
         <v>15.80513872063672</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A432">
         <v>1996</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>13.008165865079416</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A433">
         <v>1996</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>-31.682751751594616</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A434">
         <v>1997</v>
       </c>
@@ -8245,7 +8245,7 @@
         <v>-21.086234592327241</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A435">
         <v>1997</v>
       </c>
@@ -8263,7 +8263,7 @@
         <v>-17.126105914861796</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A436">
         <v>1997</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>-28.931796034941641</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A437">
         <v>1997</v>
       </c>
@@ -8299,7 +8299,7 @@
         <v>-30.820124553232716</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A438">
         <v>1997</v>
       </c>
@@ -8317,7 +8317,7 @@
         <v>-88.200748889368455</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A439">
         <v>1997</v>
       </c>
@@ -8335,7 +8335,7 @@
         <v>-110.44831315496646</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A440">
         <v>1997</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>-37.745019118143759</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A441">
         <v>1997</v>
       </c>
@@ -8371,7 +8371,7 @@
         <v>-88.629476207713694</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A442">
         <v>1997</v>
       </c>
@@ -8389,7 +8389,7 @@
         <v>-6.3328800244794934</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A443">
         <v>1997</v>
       </c>
@@ -8407,7 +8407,7 @@
         <v>-41.982705081026857</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A444">
         <v>1997</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>-11.891526102046058</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A445">
         <v>1997</v>
       </c>
@@ -8443,7 +8443,7 @@
         <v>-22.050125674805383</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A446">
         <v>1998</v>
       </c>
@@ -8461,7 +8461,7 @@
         <v>-21.148123640532418</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A447">
         <v>1998</v>
       </c>
@@ -8479,7 +8479,7 @@
         <v>-35.729349553356734</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A448">
         <v>1998</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>-17.250043363937337</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A449">
         <v>1998</v>
       </c>
@@ -8515,7 +8515,7 @@
         <v>-34.92105324536233</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A450">
         <v>1998</v>
       </c>
@@ -8533,7 +8533,7 @@
         <v>26.614197270644993</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A451">
         <v>1998</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v>-104.64295054391286</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A452">
         <v>1998</v>
       </c>
@@ -8569,7 +8569,7 @@
         <v>68.754813890310388</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A453">
         <v>1998</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>72.246821090236367</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A454">
         <v>1998</v>
       </c>
@@ -8605,7 +8605,7 @@
         <v>-58.607732217448671</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A455">
         <v>1998</v>
       </c>
@@ -8623,7 +8623,7 @@
         <v>-9.6523383349605965</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A456">
         <v>1998</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>-42.605576405402637</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A457">
         <v>1998</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>-29.993277133679722</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A458">
         <v>1999</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>-32.679296060886642</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A459">
         <v>1999</v>
       </c>
@@ -8695,7 +8695,7 @@
         <v>-46.344189813398856</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A460">
         <v>1999</v>
       </c>
@@ -8713,7 +8713,7 @@
         <v>-42.734664975067801</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A461">
         <v>1999</v>
       </c>
@@ -8731,7 +8731,7 @@
         <v>-34.556534597501795</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A462">
         <v>1999</v>
       </c>
@@ -8749,7 +8749,7 @@
         <v>-14.178869608960326</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A463">
         <v>1999</v>
       </c>
@@ -8767,7 +8767,7 @@
         <v>-28.524751583997826</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A464">
         <v>1999</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>17.418326347630696</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A465">
         <v>1999</v>
       </c>
@@ -8803,7 +8803,7 @@
         <v>-58.735927382906794</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A466">
         <v>1999</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>-2.3395380842241593</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A467">
         <v>1999</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>39.020234487536477</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A468">
         <v>1999</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>-18.630474415591181</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A469">
         <v>1999</v>
       </c>
@@ -8875,7 +8875,7 @@
         <v>-27.593163860927127</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A470">
         <v>2000</v>
       </c>
@@ -8893,7 +8893,7 @@
         <v>-14.357386979446407</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A471">
         <v>2000</v>
       </c>
@@ -8911,7 +8911,7 @@
         <v>-25.341880160464807</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A472">
         <v>2000</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>-58.274665875478561</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A473">
         <v>2000</v>
       </c>
@@ -8947,7 +8947,7 @@
         <v>-70.087109265527104</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A474">
         <v>2000</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>-83.15804527879331</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A475">
         <v>2000</v>
       </c>
@@ -8983,7 +8983,7 @@
         <v>7.2639360349752735</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A476">
         <v>2000</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>-73.051348414672532</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A477">
         <v>2000</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>30.201321604308873</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A478">
         <v>2000</v>
       </c>
@@ -9037,7 +9037,7 @@
         <v>10.314594897190915</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A479">
         <v>2000</v>
       </c>
@@ -9055,7 +9055,7 @@
         <v>42.851868887277313</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A480">
         <v>2000</v>
       </c>
@@ -9073,7 +9073,7 @@
         <v>-9.6586179497023146</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A481">
         <v>2000</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>-20.378449201392584</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A482">
         <v>2001</v>
       </c>
@@ -9109,7 +9109,7 @@
         <v>-12.386290125318958</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A483">
         <v>2001</v>
       </c>
@@ -9127,7 +9127,7 @@
         <v>-25.104215840361068</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A484">
         <v>2001</v>
       </c>
@@ -9145,7 +9145,7 @@
         <v>-74.083203539052036</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A485">
         <v>2001</v>
       </c>
@@ -9163,7 +9163,7 @@
         <v>-31.702013352033433</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A486">
         <v>2001</v>
       </c>
@@ -9181,7 +9181,7 @@
         <v>-86.954607683327794</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A487">
         <v>2001</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>-38.034929625942297</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A488">
         <v>2001</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>-37.559235441241796</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A489">
         <v>2001</v>
       </c>
@@ -9235,7 +9235,7 @@
         <v>-29.944728995960148</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A490">
         <v>2001</v>
       </c>
@@ -9253,7 +9253,7 @@
         <v>38.825381930937546</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A491">
         <v>2001</v>
       </c>
@@ -9271,7 +9271,7 @@
         <v>-0.72405385731332217</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A492">
         <v>2001</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>-29.521465171125953</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A493">
         <v>2001</v>
       </c>
@@ -9307,7 +9307,7 @@
         <v>-9.1309467113794369</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A494">
         <v>2002</v>
       </c>
@@ -9325,7 +9325,7 @@
         <v>-21.613731228710229</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A495">
         <v>2002</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>-31.324383513458073</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A496">
         <v>2002</v>
       </c>
@@ -9361,7 +9361,7 @@
         <v>-50.849704777986389</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A497">
         <v>2002</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>-54.050742168131528</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A498">
         <v>2002</v>
       </c>
@@ -9397,7 +9397,7 @@
         <v>2.3581512594475527</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A499">
         <v>2002</v>
       </c>
@@ -9415,7 +9415,7 @@
         <v>-3.1543079387815425</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A500">
         <v>2002</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>-96.588061076520745</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A501">
         <v>2002</v>
       </c>
@@ -9451,7 +9451,7 @@
         <v>-46.430467820476295</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A502">
         <v>2002</v>
       </c>
@@ -9469,7 +9469,7 @@
         <v>-14.976817283293421</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A503">
         <v>2002</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>-23.537993000686427</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A504">
         <v>2002</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>-26.207327535589371</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A505">
         <v>2002</v>
       </c>
@@ -9523,7 +9523,7 @@
         <v>-11.538895683849322</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A506">
         <v>2003</v>
       </c>
@@ -9541,7 +9541,7 @@
         <v>-16.615850856405267</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A507">
         <v>2003</v>
       </c>
@@ -9559,7 +9559,7 @@
         <v>-20.910023847503311</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A508">
         <v>2003</v>
       </c>
@@ -9577,7 +9577,7 @@
         <v>-40.149365026641348</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A509">
         <v>2003</v>
       </c>
@@ -9595,7 +9595,7 @@
         <v>-30.971825583773146</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A510">
         <v>2003</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>-47.316127863197309</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A511">
         <v>2003</v>
       </c>
@@ -9631,7 +9631,7 @@
         <v>-72.048997849974867</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A512">
         <v>2003</v>
       </c>
@@ -9649,7 +9649,7 @@
         <v>21.367030039129105</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A513">
         <v>2003</v>
       </c>
@@ -9667,7 +9667,7 @@
         <v>120.20716400615439</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A514">
         <v>2003</v>
       </c>
@@ -9685,7 +9685,7 @@
         <v>95.03005505680612</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A515">
         <v>2003</v>
       </c>
@@ -9703,7 +9703,7 @@
         <v>45.221297082922398</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A516">
         <v>2003</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>-1.898076082073576</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A517">
         <v>2003</v>
       </c>
@@ -9739,7 +9739,7 @@
         <v>-18.877189731152889</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A518">
         <v>2004</v>
       </c>
@@ -9757,7 +9757,7 @@
         <v>-23.849884367933626</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A519">
         <v>2004</v>
       </c>
@@ -9775,7 +9775,7 @@
         <v>-25.682185699384036</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A520">
         <v>2004</v>
       </c>
@@ -9793,7 +9793,7 @@
         <v>-42.309050816628897</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A521">
         <v>2004</v>
       </c>
@@ -9811,7 +9811,7 @@
         <v>-87.094359523722375</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A522">
         <v>2004</v>
       </c>
@@ -9829,7 +9829,7 @@
         <v>-72.818344893193213</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A523">
         <v>2004</v>
       </c>
@@ -9847,7 +9847,7 @@
         <v>-51.255939843153058</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A524">
         <v>2004</v>
       </c>
@@ -9865,7 +9865,7 @@
         <v>-22.555527238298851</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A525">
         <v>2004</v>
       </c>
@@ -9883,7 +9883,7 @@
         <v>-5.6080586291797943</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A526">
         <v>2004</v>
       </c>
@@ -9901,7 +9901,7 @@
         <v>44.486302425497101</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A527">
         <v>2004</v>
       </c>
@@ -9919,7 +9919,7 @@
         <v>-18.008650859861465</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A528">
         <v>2004</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>-15.593860029998975</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A529">
         <v>2004</v>
       </c>
@@ -9955,7 +9955,7 @@
         <v>-9.6862754802845128</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A530">
         <v>2005</v>
       </c>
@@ -9973,7 +9973,7 @@
         <v>-21.434711454029372</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A531">
         <v>2005</v>
       </c>
@@ -9991,7 +9991,7 @@
         <v>-19.097047471017792</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A532">
         <v>2005</v>
       </c>
@@ -10009,7 +10009,7 @@
         <v>-46.152657933893849</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A533">
         <v>2005</v>
       </c>
@@ -10027,7 +10027,7 @@
         <v>-73.998561154949954</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A534">
         <v>2005</v>
       </c>
@@ -10045,7 +10045,7 @@
         <v>-34.134876643622334</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A535">
         <v>2005</v>
       </c>
@@ -10063,7 +10063,7 @@
         <v>-55.179050946422279</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A536">
         <v>2005</v>
       </c>
@@ -10081,7 +10081,7 @@
         <v>16.088213589749458</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A537">
         <v>2005</v>
       </c>
@@ -10099,7 +10099,7 @@
         <v>36.220405813628901</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A538">
         <v>2005</v>
       </c>
@@ -10117,7 +10117,7 @@
         <v>28.953459754912089</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A539">
         <v>2005</v>
       </c>
@@ -10135,7 +10135,7 @@
         <v>60.633498766659507</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A540">
         <v>2005</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>-28.612700919983617</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A541">
         <v>2005</v>
       </c>
@@ -10171,7 +10171,7 @@
         <v>-27.031358884991526</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A542">
         <v>2006</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>-14.791703364429264</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A543">
         <v>2006</v>
       </c>
@@ -10207,7 +10207,7 @@
         <v>-10.095295367017009</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A544">
         <v>2006</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>-62.767033048404144</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A545">
         <v>2006</v>
       </c>
@@ -10243,7 +10243,7 @@
         <v>-48.898613643706227</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A546">
         <v>2006</v>
       </c>
@@ -10261,7 +10261,7 @@
         <v>-41.513510051781893</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A547">
         <v>2006</v>
       </c>
@@ -10279,7 +10279,7 @@
         <v>-63.990334631592759</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A548">
         <v>2006</v>
       </c>
@@ -10297,7 +10297,7 @@
         <v>-21.223874037858906</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A549">
         <v>2006</v>
       </c>
@@ -10315,7 +10315,7 @@
         <v>-5.2003352783644488</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A550">
         <v>2006</v>
       </c>
@@ -10333,7 +10333,7 @@
         <v>57.564160552123724</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A551">
         <v>2006</v>
       </c>
@@ -10351,7 +10351,7 @@
         <v>-11.252275090388956</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A552">
         <v>2006</v>
       </c>
@@ -10369,7 +10369,7 @@
         <v>-23.175563129982475</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A553">
         <v>2006</v>
       </c>
@@ -10387,7 +10387,7 @@
         <v>-16.412811367331667</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A554">
         <v>2007</v>
       </c>
@@ -10405,7 +10405,7 @@
         <v>-26.59096126821456</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A555">
         <v>2007</v>
       </c>
@@ -10423,7 +10423,7 @@
         <v>-31.003458124299875</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A556">
         <v>2007</v>
       </c>
@@ -10441,7 +10441,7 @@
         <v>-24.972759399703264</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A557">
         <v>2007</v>
       </c>
@@ -10459,7 +10459,7 @@
         <v>-82.168272587580944</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A558">
         <v>2007</v>
       </c>
@@ -10477,7 +10477,7 @@
         <v>-85.382903026736898</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A559">
         <v>2007</v>
       </c>
@@ -10495,7 +10495,7 @@
         <v>-34.296975688440611</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A560">
         <v>2007</v>
       </c>
@@ -10513,7 +10513,7 @@
         <v>89.764896537255481</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A561">
         <v>2007</v>
       </c>
@@ -10531,7 +10531,7 @@
         <v>30.464861088858555</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A562">
         <v>2007</v>
       </c>
@@ -10549,7 +10549,7 @@
         <v>-0.71781296366108904</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A563">
         <v>2007</v>
       </c>
@@ -10567,7 +10567,7 @@
         <v>23.512665231694612</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A564">
         <v>2007</v>
       </c>
@@ -10585,7 +10585,7 @@
         <v>-34.085253112624393</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A565">
         <v>2007</v>
       </c>
@@ -10603,7 +10603,7 @@
         <v>-17.071336347396951</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A566">
         <v>2008</v>
       </c>
@@ -10621,7 +10621,7 @@
         <v>-4.9678057055013802</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A567">
         <v>2008</v>
       </c>
@@ -10639,7 +10639,7 @@
         <v>-24.672308626735521</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A568">
         <v>2008</v>
       </c>
@@ -10657,7 +10657,7 @@
         <v>-50.884635995049017</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A569">
         <v>2008</v>
       </c>
@@ -10675,7 +10675,7 @@
         <v>-44.576457947685412</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A570">
         <v>2008</v>
       </c>
@@ -10693,7 +10693,7 @@
         <v>-98.932313481683323</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A571">
         <v>2008</v>
       </c>
@@ -10711,7 +10711,7 @@
         <v>-34.616061783738772</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A572">
         <v>2008</v>
       </c>
@@ -10729,7 +10729,7 @@
         <v>-31.744590920307729</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A573">
         <v>2008</v>
       </c>
@@ -10747,7 +10747,7 @@
         <v>-7.5957516409725514</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A574">
         <v>2008</v>
       </c>
@@ -10765,7 +10765,7 @@
         <v>31.706237088756964</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A575">
         <v>2008</v>
       </c>
@@ -10783,7 +10783,7 @@
         <v>10.419829410932344</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A576">
         <v>2008</v>
       </c>
@@ -10801,7 +10801,7 @@
         <v>-18.019370839218816</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A577">
         <v>2008</v>
       </c>
@@ -10819,7 +10819,7 @@
         <v>-31.449320006254087</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A578">
         <v>2009</v>
       </c>
@@ -10837,7 +10837,7 @@
         <v>-25.517247145859859</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A579">
         <v>2009</v>
       </c>
@@ -10855,7 +10855,7 @@
         <v>-16.967499098907929</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A580">
         <v>2009</v>
       </c>
@@ -10873,7 +10873,7 @@
         <v>-34.814721554649367</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A581">
         <v>2009</v>
       </c>
@@ -10891,7 +10891,7 @@
         <v>-54.863788858271334</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A582">
         <v>2009</v>
       </c>
@@ -10909,7 +10909,7 @@
         <v>12.756067600093687</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A583">
         <v>2009</v>
       </c>
@@ -10927,7 +10927,7 @@
         <v>-75.257329057172498</v>
       </c>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A584">
         <v>2009</v>
       </c>
@@ -10945,7 +10945,7 @@
         <v>-11.889929399437264</v>
       </c>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A585">
         <v>2009</v>
       </c>
@@ -10963,7 +10963,7 @@
         <v>54.648020217737084</v>
       </c>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A586">
         <v>2009</v>
       </c>
@@ -10981,7 +10981,7 @@
         <v>-5.8410124915936876</v>
       </c>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A587">
         <v>2009</v>
       </c>
@@ -10999,7 +10999,7 @@
         <v>-5.3633273820591327</v>
       </c>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A588">
         <v>2009</v>
       </c>
@@ -11017,7 +11017,7 @@
         <v>12.635849398064501</v>
       </c>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A589">
         <v>2009</v>
       </c>
@@ -11035,7 +11035,7 @@
         <v>-17.324585062185434</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A590">
         <v>2010</v>
       </c>
@@ -11053,7 +11053,7 @@
         <v>-28.08924616362664</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A591">
         <v>2010</v>
       </c>
@@ -11071,7 +11071,7 @@
         <v>-26.558897517694334</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A592">
         <v>2010</v>
       </c>
@@ -11089,7 +11089,7 @@
         <v>-25.222559512022436</v>
       </c>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A593">
         <v>2010</v>
       </c>
@@ -11107,7 +11107,7 @@
         <v>-41.765950277952321</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A594">
         <v>2010</v>
       </c>
@@ -11125,7 +11125,7 @@
         <v>-19.260371684551288</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A595">
         <v>2010</v>
       </c>
@@ -11143,7 +11143,7 @@
         <v>-52.753638056944496</v>
       </c>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A596">
         <v>2010</v>
       </c>
@@ -11161,7 +11161,7 @@
         <v>39.468895729685372</v>
       </c>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A597">
         <v>2010</v>
       </c>
@@ -11179,7 +11179,7 @@
         <v>46.532709156772327</v>
       </c>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A598">
         <v>2010</v>
       </c>
@@ -11197,7 +11197,7 @@
         <v>26.600644641562454</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A599">
         <v>2010</v>
       </c>
@@ -11215,7 +11215,7 @@
         <v>-8.5493202034676656</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A600">
         <v>2010</v>
       </c>
@@ -11233,7 +11233,7 @@
         <v>-29.325115972005882</v>
       </c>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A601">
         <v>2010</v>
       </c>
@@ -11264,7 +11264,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11277,7 +11277,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
